--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3778276.470747011</v>
+        <v>3885659.665174314</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498523</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7389691.551542881</v>
+        <v>7360704.840857383</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>85.2564474226714</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -722,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>215.9619500976792</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.1420058812427</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>39.23764335348802</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>71.50958079734296</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>84.1101138979971</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,13 +1065,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>125.422359572023</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>80.15388582077601</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1136,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>185.6930507761481</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>308.007490231658</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>162.1644759747437</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1881517345608</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>45.6605461321774</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>55.52079624060465</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569552</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>35.23631477519741</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>193.7663624135853</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2005,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>25.26322697488475</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2138,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2287,13 +2289,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>7.602497644399061</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>76.94227792014335</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>97.98413062224144</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -2524,7 +2526,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2716,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>82.85993176808007</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,10 +2772,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>147.2606364488714</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>56.9811888265258</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808194</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352484</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972051</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>112.2919725119096</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.4515336021213</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652518</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.090599218082</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972045</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="36">
@@ -3360,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652587</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808158</v>
+        <v>52.54490042791004</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972045</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.330825526172</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>134.3852063573442</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652587</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972045</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3797,13 +3799,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.9811888265258</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808194</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096051</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>1.619672595757761</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.272891771009</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4031,16 +4033,16 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>28.68281686619609</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.22826981530314</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>522.0185353148695</v>
+        <v>514.7427041430119</v>
       </c>
       <c r="C2" t="n">
-        <v>522.0185353148695</v>
+        <v>514.7427041430119</v>
       </c>
       <c r="D2" t="n">
-        <v>522.0185353148695</v>
+        <v>514.7427041430119</v>
       </c>
       <c r="E2" t="n">
-        <v>136.2302827166252</v>
+        <v>514.7427041430119</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674218</v>
+        <v>507.7972033938084</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4328,10 +4330,10 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4358,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190806</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847235</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1500.227517577121</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1126.761759316041</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y2" t="n">
-        <v>908.6183753789912</v>
+        <v>901.3425442071336</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4410,25 +4412,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>870.329241545892</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4446,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>493.9187069012835</v>
+        <v>344.6490100063443</v>
       </c>
       <c r="C4" t="n">
-        <v>325.0883979303312</v>
+        <v>344.6490100063443</v>
       </c>
       <c r="D4" t="n">
-        <v>325.0883979303312</v>
+        <v>305.0150268210028</v>
       </c>
       <c r="E4" t="n">
-        <v>325.0883979303312</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4510,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269233</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>1124.349301773071</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="V4" t="n">
-        <v>1124.349301773071</v>
+        <v>793.4311400478917</v>
       </c>
       <c r="W4" t="n">
-        <v>1124.349301773071</v>
+        <v>793.4311400478917</v>
       </c>
       <c r="X4" t="n">
-        <v>896.3597508750534</v>
+        <v>565.4415891498744</v>
       </c>
       <c r="Y4" t="n">
-        <v>675.5671717315232</v>
+        <v>344.6490100063443</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1308.132293616578</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="C5" t="n">
-        <v>1308.132293616578</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="D5" t="n">
-        <v>1308.132293616578</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="E5" t="n">
-        <v>922.3440410183334</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4595,22 +4597,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926626</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W5" t="n">
-        <v>2084.871465656511</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X5" t="n">
-        <v>2084.871465656511</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y5" t="n">
-        <v>1694.732133680699</v>
+        <v>527.8767859460538</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L6" t="n">
-        <v>932.4978103100998</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M6" t="n">
-        <v>1295.75982926932</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1683.044957866265</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2362.9309660677</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>514.9860105762135</v>
+        <v>515.8852429786114</v>
       </c>
       <c r="C7" t="n">
-        <v>346.0498276483066</v>
+        <v>515.8852429786114</v>
       </c>
       <c r="D7" t="n">
-        <v>346.0498276483066</v>
+        <v>515.8852429786114</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
         <v>51.24678656800311</v>
@@ -4723,52 +4725,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1509.756867981544</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1286.77838717628</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>997.6600496801177</v>
+        <v>1033.291963913589</v>
       </c>
       <c r="V7" t="n">
-        <v>742.9755614742309</v>
+        <v>1033.291963913589</v>
       </c>
       <c r="W7" t="n">
-        <v>742.9755614742309</v>
+        <v>743.8747938766287</v>
       </c>
       <c r="X7" t="n">
-        <v>514.9860105762135</v>
+        <v>515.8852429786114</v>
       </c>
       <c r="Y7" t="n">
-        <v>514.9860105762135</v>
+        <v>515.8852429786114</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.416669135309</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>2250.071382768901</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>1996.49032203308</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>1665.427434689509</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176917</v>
+        <v>1312.658779419395</v>
       </c>
       <c r="X8" t="n">
-        <v>2367.155841175242</v>
+        <v>1312.658779419395</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.016509199431</v>
+        <v>1312.658779419395</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>815.1145481251085</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1178.376567084329</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>785.680167749271</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="C10" t="n">
-        <v>616.7439848213642</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D10" t="n">
-        <v>616.7439848213642</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E10" t="n">
-        <v>468.830891238971</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>468.830891238971</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U10" t="n">
-        <v>1705.527932658019</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V10" t="n">
-        <v>1705.527932658019</v>
+        <v>1082.549477544054</v>
       </c>
       <c r="W10" t="n">
-        <v>1416.110762621058</v>
+        <v>1082.549477544054</v>
       </c>
       <c r="X10" t="n">
-        <v>1188.121211723041</v>
+        <v>1082.549477544054</v>
       </c>
       <c r="Y10" t="n">
-        <v>967.3286325795108</v>
+        <v>1082.549477544054</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517213</v>
+        <v>1654.485273605119</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2206.395003844406</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5267,34 +5269,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5306,19 +5308,19 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,28 +5354,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M15" t="n">
-        <v>1540.888753373306</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373306</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612593</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>721.7774158311364</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C16" t="n">
-        <v>552.8412329032295</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797189</v>
@@ -5458,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2411.370846433597</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2228.516012088501</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2008.914547111442</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1719.83932045564</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1465.154832249753</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1175.737662212792</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y16" t="n">
-        <v>903.4258806613761</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="17">
@@ -5501,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L18" t="n">
-        <v>315.9123021921476</v>
+        <v>2876.560776129205</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898186995</v>
+        <v>3473.939263755757</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373306</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5698,25 +5700,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1729.913146516562</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452613</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429802</v>
@@ -5935,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="23">
@@ -5975,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6069,25 +6071,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>800.6374272687974</v>
+        <v>2985.713220456422</v>
       </c>
       <c r="C25" t="n">
-        <v>631.7012443408905</v>
+        <v>2816.777037528515</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408905</v>
+        <v>2666.660398116179</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>2518.747304533786</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154069</v>
+        <v>3167.361685286662</v>
       </c>
     </row>
     <row r="26">
@@ -6212,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>251.5626541092265</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.6905094135296</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856228</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D28" t="n">
         <v>550.637687073287</v>
@@ -6376,10 +6378,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6406,28 +6408,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.121104285317</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.131553387299</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.338974243769</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6540,16 +6542,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>448.1846595309957</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>943.5102657467545</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>1540.888753373306</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
         <v>1540.888753373306</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942658</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1030.857960751344</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>810.0653816078141</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6688,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6698,22 +6700,22 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C33" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D33" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>3212.252935505192</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>3809.631423131744</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>3809.631423131744</v>
       </c>
       <c r="O33" t="n">
-        <v>2297.690135143765</v>
+        <v>4267.210002903525</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R33" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S33" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T33" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U33" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V33" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W33" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y33" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319321</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656814</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150019</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E34" t="n">
-        <v>533.581456494265</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580109</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>268.555303634547</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384014</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1581.823518162841</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1353.833967264824</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1133.041388121294</v>
       </c>
     </row>
     <row r="35">
@@ -6926,58 +6928,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>454.6048385560544</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L36" t="n">
-        <v>949.9304447718132</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718132</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384021</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2393.887426582372</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2393.887426582372</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2174.285961605313</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1885.210734949511</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1630.526246743624</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1341.109076706663</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1113.119525808646</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="38">
@@ -7163,31 +7165,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7257,22 +7259,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O39" t="n">
-        <v>2515.675093211831</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7403,22 +7405,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
@@ -7427,28 +7429,28 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
         <v>3094.515198591809</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656817</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1686.749820929699</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1397.332650892738</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1169.343099994721</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>948.5505208511905</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
         <v>1948.813509611463</v>
@@ -7637,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,40 +7660,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913854</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2515.675093211831</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3175.34112979674</v>
+        <v>878.3568999154069</v>
       </c>
       <c r="C46" t="n">
-        <v>3006.404946868834</v>
+        <v>709.4207169875</v>
       </c>
       <c r="D46" t="n">
-        <v>2856.288307456498</v>
+        <v>559.3040775751642</v>
       </c>
       <c r="E46" t="n">
-        <v>2708.375213874105</v>
+        <v>411.3909839927711</v>
       </c>
       <c r="F46" t="n">
-        <v>2561.485266376194</v>
+        <v>264.5010364948607</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376194</v>
+        <v>264.5010364948607</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218392</v>
+        <v>122.7892053370588</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822169</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998109</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729144</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.430181389152</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398595</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4507.9783180535</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>4288.376853076441</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>3999.301626420639</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V46" t="n">
-        <v>3744.617138214752</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W46" t="n">
-        <v>3455.199968177792</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X46" t="n">
-        <v>3455.199968177792</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y46" t="n">
-        <v>3356.98959462698</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
   </sheetData>
@@ -8058,28 +8060,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>280.1079373569282</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>30.36925650589512</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>162.0073097921334</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>84.94186588374643</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8535,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>224.3355197601774</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9179,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9416,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9650,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10130,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -11315,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>99.76050189075384</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>31.13893193492425</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>24.81829093850953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>226.8744163489432</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>218.1071577446381</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>102.8897022617939</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>47.43691740068981</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>65.75554125013228</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>104.8770068749566</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>113.4176828771275</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>0.3804465798160379</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25324,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>13.83034628221166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>12.04875628922497</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>250.5179707280703</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>52.58301945236943</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>121.3563835367917</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>643016.7552599552</v>
+        <v>649552.8755111331</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>632247.9983748902</v>
+        <v>632247.9983748903</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>632247.9983748903</v>
+        <v>632247.9983748902</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>643016.7552599552</v>
+        <v>632247.9983748902</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>643016.7552599552</v>
+        <v>632247.9983748903</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>643016.7552599552</v>
+        <v>632247.9983748902</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>643016.7552599552</v>
+        <v>632247.9983748902</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>643016.7552599552</v>
+        <v>632247.9983748902</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>632247.9983748903</v>
+        <v>632247.9983748902</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176766</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="F2" t="n">
         <v>786967.9346977556</v>
@@ -26329,28 +26331,28 @@
         <v>786967.934697756</v>
       </c>
       <c r="H2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="I2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="L2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="J2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="K2" t="n">
-        <v>800515.7256176757</v>
-      </c>
-      <c r="L2" t="n">
-        <v>800515.7256176773</v>
-      </c>
       <c r="M2" t="n">
-        <v>800515.7256176767</v>
+        <v>786967.9346977555</v>
       </c>
       <c r="N2" t="n">
-        <v>800515.725617677</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="O2" t="n">
-        <v>800515.7256176758</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="P2" t="n">
         <v>786967.934697756</v>
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>507485.4416245463</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363182</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819066</v>
+        <v>6.548361852765082e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>132607.2937289264</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>86694.40323307095</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719668</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.36846171961</v>
+        <v>7507.36846171972</v>
       </c>
       <c r="G4" t="n">
+        <v>7507.368461719642</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7507.368461719667</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7507.368461719638</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7507.368461719667</v>
+      </c>
+      <c r="K4" t="n">
         <v>7507.368461719668</v>
       </c>
-      <c r="H4" t="n">
-        <v>7507.368461719643</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7507.368461719668</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7507.368461719635</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15498.22772481312</v>
-      </c>
       <c r="L4" t="n">
-        <v>15498.22772481309</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>15498.22772481307</v>
+        <v>7507.368461719719</v>
       </c>
       <c r="N4" t="n">
-        <v>15498.22772481311</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>15498.22772481314</v>
+        <v>7507.368461719669</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719607</v>
+        <v>7507.368461719667</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.77243984472</v>
+      </c>
+      <c r="C5" t="n">
+        <v>92937.77243984472</v>
+      </c>
+      <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
-      <c r="C5" t="n">
-        <v>92937.7724398447</v>
-      </c>
-      <c r="D5" t="n">
-        <v>107933.9405613933</v>
-      </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-540287.6939448324</v>
+        <v>-540287.6939448323</v>
       </c>
       <c r="C6" t="n">
         <v>574464.0896310873</v>
       </c>
       <c r="D6" t="n">
-        <v>413260.2413828735</v>
+        <v>574464.0896310875</v>
       </c>
       <c r="E6" t="n">
-        <v>352925.5746047738</v>
+        <v>170852.5947875826</v>
       </c>
       <c r="F6" t="n">
-        <v>678338.0364121289</v>
+        <v>678338.0364121288</v>
       </c>
       <c r="G6" t="n">
         <v>678338.0364121292</v>
       </c>
       <c r="H6" t="n">
+        <v>678338.0364121292</v>
+      </c>
+      <c r="I6" t="n">
         <v>678338.0364121293</v>
       </c>
-      <c r="I6" t="n">
-        <v>678338.0364121289</v>
-      </c>
       <c r="J6" t="n">
-        <v>510732.8586021468</v>
+        <v>510732.858602146</v>
       </c>
       <c r="K6" t="n">
-        <v>662425.6640453154</v>
+        <v>678338.0364121287</v>
       </c>
       <c r="L6" t="n">
-        <v>633559.4120307583</v>
+        <v>678338.0364121288</v>
       </c>
       <c r="M6" t="n">
-        <v>596798.3541034363</v>
+        <v>545730.7426832023</v>
       </c>
       <c r="N6" t="n">
-        <v>681853.3820389485</v>
+        <v>678338.0364121292</v>
       </c>
       <c r="O6" t="n">
-        <v>681853.3820389473</v>
+        <v>678338.0364121291</v>
       </c>
       <c r="P6" t="n">
-        <v>678338.0364121292</v>
+        <v>678338.0364121293</v>
       </c>
     </row>
   </sheetData>
@@ -26695,10 +26697,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203965</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203965</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="C3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175392</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175391</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,16 +26795,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,16 +26822,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="P4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,10 +26934,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>433.910608224135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,10 +26995,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.12345599961</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.12345599961</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>326.2912553502826</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>170.2759885583743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1048152173850951</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>109.3778296647243</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>311.2242608661376</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>322.7659318437143</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>69.24010078971449</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>206.0732683004246</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27856,19 +27858,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>20.96513420408562</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>61.72361044681105</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>17.66750420719356</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>8.837656524467377</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="15">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,10 +30696,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>-1.478997154632013e-12</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30751,19 +30753,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,28 +31837,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>303.4297552732306</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>211.5147800288484</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
@@ -31865,7 +31867,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32072,19 +32074,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>615.0381444378773</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
@@ -32093,10 +32095,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>531.2627466777524</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32318,25 +32320,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>211.7351844430268</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>697.0074482175614</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32467,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32546,31 +32548,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>509.0826837242969</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32789,28 +32791,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>322.6999460717711</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33020,13 +33022,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>295.3955842839422</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
@@ -33035,19 +33037,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33260,10 +33262,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>344.6306853939237</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
@@ -33272,7 +33274,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>151.9914336104071</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437244</v>
@@ -33418,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817577</v>
@@ -33494,7 +33496,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33509,19 +33511,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>604.7968300725063</v>
       </c>
       <c r="P33" t="n">
-        <v>354.9153144485699</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>351.1157147121648</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>485.1127032082916</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,46 +33809,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33977,34 +33979,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34211,10 +34213,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34223,16 +34225,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>361.7519118779092</v>
+        <v>572.8682992214867</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34442,16 +34444,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>401.521336481369</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862122</v>
@@ -34463,10 +34465,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34699,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>577.7882979947784</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>280.0487856294274</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>497.4319917882564</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>201.422588214601</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>522.0158803980275</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>160.8335108287862</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>77.54037261451819</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35720,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>472.904110515859</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35741,10 +35743,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>397.2883392634221</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789214</v>
@@ -35881,7 +35883,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.4543240367771</v>
@@ -35899,7 +35901,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924729</v>
@@ -35966,25 +35968,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>73.1808046631526</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>565.6657361342282</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36136,7 +36138,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924729</v>
@@ -36194,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>110.1905571410452</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>377.7409716409636</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36370,7 +36372,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
@@ -36437,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410452</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.4543240367771</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>157.5541453095832</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
@@ -36683,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36850,7 +36852,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36908,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>206.7892464195648</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
@@ -36920,7 +36922,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>20.64972152707382</v>
       </c>
       <c r="O30" t="n">
         <v>557.48457599928</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
         <v>479.4543240367771</v>
@@ -37084,7 +37086,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924729</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37157,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>462.2005856280619</v>
       </c>
       <c r="P33" t="n">
-        <v>220.9409070342396</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>213.2742757378059</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>342.5164587638472</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,10 +37861,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37873,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>219.1556674334648</v>
+        <v>430.2720547770423</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38035,7 +38037,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902405</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>263.67989750701</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38111,10 +38113,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789214</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3881522.507924164</v>
+        <v>3883283.038226947</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>266.7331670745509</v>
+        <v>326.959745928348</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -718,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>160.0327312207274</v>
       </c>
       <c r="V4" t="n">
-        <v>54.57777833528768</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>266.534130533769</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>179.6140181837485</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>50.9807481254283</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>173.2287818528963</v>
       </c>
       <c r="H8" t="n">
-        <v>214.2026470839398</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247055</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269627</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705016</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>50.9807481254277</v>
+        <v>50.98074812542793</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444127</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>87.21471514852939</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>38.05096575280767</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187862</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>21.44532649588058</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881276</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881277</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428169</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>26.1362719570585</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>98.03921036659287</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>201.2773066778176</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>108.3106907504111</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4146,10 +4146,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>19.91555826189057</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>180.9172429496413</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1844.676600992462</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="C2" t="n">
-        <v>1475.714084052051</v>
+        <v>1840.608156189629</v>
       </c>
       <c r="D2" t="n">
-        <v>1117.4483854453</v>
+        <v>1482.342457582879</v>
       </c>
       <c r="E2" t="n">
-        <v>731.660132847056</v>
+        <v>1096.554204984634</v>
       </c>
       <c r="F2" t="n">
-        <v>320.6742280574485</v>
+        <v>685.5683001950267</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
         <v>51.2467865680031</v>
@@ -4330,13 +4330,13 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4366,16 +4366,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056584</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>2231.276441056584</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X2" t="n">
-        <v>2231.276441056584</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="Y2" t="n">
-        <v>2231.276441056584</v>
+        <v>2209.570673130041</v>
       </c>
     </row>
     <row r="3">
@@ -4415,22 +4415,22 @@
         <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>770.0080784229705</v>
+        <v>770.9577966591559</v>
       </c>
       <c r="C4" t="n">
-        <v>770.0080784229705</v>
+        <v>602.021613731249</v>
       </c>
       <c r="D4" t="n">
-        <v>619.8914390106347</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E4" t="n">
-        <v>471.9783454282416</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
         <v>157.1019332386098</v>
@@ -4521,19 +4521,19 @@
         <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>825.1371474485136</v>
+        <v>952.6062614893956</v>
       </c>
       <c r="V4" t="n">
-        <v>770.0080784229705</v>
+        <v>952.6062614893956</v>
       </c>
       <c r="W4" t="n">
-        <v>770.0080784229705</v>
+        <v>952.6062614893956</v>
       </c>
       <c r="X4" t="n">
-        <v>770.0080784229705</v>
+        <v>952.6062614893956</v>
       </c>
       <c r="Y4" t="n">
-        <v>770.0080784229705</v>
+        <v>952.6062614893956</v>
       </c>
     </row>
     <row r="5">
@@ -4546,34 +4546,34 @@
         <v>1059.365742829027</v>
       </c>
       <c r="C5" t="n">
-        <v>1059.365742829027</v>
+        <v>690.4032258886152</v>
       </c>
       <c r="D5" t="n">
-        <v>1059.365742829027</v>
+        <v>332.1375272818647</v>
       </c>
       <c r="E5" t="n">
-        <v>1059.365742829027</v>
+        <v>332.1375272818647</v>
       </c>
       <c r="F5" t="n">
-        <v>648.3798380394198</v>
+        <v>62.91113280331015</v>
       </c>
       <c r="G5" t="n">
-        <v>232.6750877637087</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4585,31 +4585,31 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130041</v>
+        <v>2209.57067313004</v>
       </c>
       <c r="X5" t="n">
-        <v>1836.104914868961</v>
+        <v>1836.10491486896</v>
       </c>
       <c r="Y5" t="n">
         <v>1445.965582893149</v>
@@ -4643,19 +4643,19 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380226</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694947</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N6" t="n">
         <v>1659.79372942566</v>
@@ -4713,19 +4713,19 @@
         <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312193</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4740,10 +4740,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1114.902695549578</v>
+        <v>603.603648011926</v>
       </c>
       <c r="C8" t="n">
-        <v>1114.902695549578</v>
+        <v>603.603648011926</v>
       </c>
       <c r="D8" t="n">
-        <v>756.6369969428272</v>
+        <v>603.603648011926</v>
       </c>
       <c r="E8" t="n">
-        <v>756.6369969428272</v>
+        <v>603.603648011926</v>
       </c>
       <c r="F8" t="n">
-        <v>345.6510921532196</v>
+        <v>596.6581472627225</v>
       </c>
       <c r="G8" t="n">
-        <v>333.9867459179126</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
@@ -4804,7 +4804,7 @@
         <v>51.24678656800308</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816079</v>
@@ -4819,7 +4819,7 @@
         <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
         <v>2360.886721764996</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056583</v>
+        <v>2106.577233583053</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786469</v>
+        <v>1753.808578312939</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.042027525389</v>
+        <v>1380.342820051859</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549578</v>
+        <v>990.2034880760477</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800308</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500112</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735138</v>
+        <v>560.139411173514</v>
       </c>
       <c r="L9" t="n">
-        <v>1117.223096727986</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687206</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.770244284151</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
         <v>2199.840679460312</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657489</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C10" t="n">
-        <v>547.662172237842</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255063</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431131</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F10" t="n">
-        <v>102.7424917452028</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G10" t="n">
         <v>51.24678656800308</v>
@@ -4962,16 +4962,16 @@
         <v>51.24678656800308</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312191</v>
+        <v>76.71595955312193</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096583</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -5007,7 +5007,7 @@
         <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959886</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="11">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362675</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075801</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5071,22 +5071,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5117,7 +5117,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5129,7 +5129,7 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
         <v>1896.176478190825</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.8431516380886</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>572.9069687101817</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5202,10 +5202,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683283</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5275,28 +5275,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961522</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1337.934786622704</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1965.53275017731</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5439,10 +5439,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5506,7 +5506,7 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5515,25 +5515,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5600,19 +5600,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O18" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2358.255433877228</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2138.653968900169</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,7 +5770,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5889,16 +5889,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5910,37 +5910,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
         <v>1746.193029533436</v>
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6214,28 +6214,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6253,10 +6253,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6615,10 +6615,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6691,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,31 +6721,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2420.562808876161</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2420.562808876161</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2420.562808876161</v>
+        <v>2165.078743814364</v>
       </c>
       <c r="U34" t="n">
-        <v>2131.487582220359</v>
+        <v>1876.003517158562</v>
       </c>
       <c r="V34" t="n">
-        <v>1876.803094014472</v>
+        <v>1621.319028952675</v>
       </c>
       <c r="W34" t="n">
-        <v>1587.385923977512</v>
+        <v>1331.901858915714</v>
       </c>
       <c r="X34" t="n">
-        <v>1359.396373079494</v>
+        <v>1103.912308017697</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.603793935964</v>
+        <v>883.1197288741665</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1667.930277414128</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1378.513107377167</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1150.52355647915</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>929.7309773356195</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,28 +7165,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7368,16 +7368,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D46" t="n">
-        <v>261.8464821474262</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>113.9333885650331</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>240.4465442417437</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>265.0304328515147</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878349</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154992</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>265.0304328515155</v>
+        <v>265.0304328515148</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154995</v>
+        <v>20.93778120154992</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>61.40075786968296</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>179.3544845744806</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>159.580959505764</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>40.23897475306318</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>50.86033664601044</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>178.2123075861799</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26034,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>71.22040037418668</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>632247.9983748902</v>
+        <v>632247.9983748903</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>632247.9983748903</v>
+        <v>632247.9983748902</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.725617676</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
         <v>800515.725617676</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977555</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="F2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.934697756</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="K2" t="n">
-        <v>786967.9346977555</v>
+        <v>786967.934697756</v>
       </c>
       <c r="L2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="N2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977558</v>
       </c>
     </row>
     <row r="3">
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>133113.8635467443</v>
+      </c>
+      <c r="C4" t="n">
         <v>133113.8635467444</v>
-      </c>
-      <c r="C4" t="n">
-        <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
         <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171973</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719669</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719671</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171967</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.36846171971</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.36846171971</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719729</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
         <v>7507.368461719667</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-540287.6939448322</v>
+        <v>-540287.6939448324</v>
       </c>
       <c r="C6" t="n">
-        <v>574464.0896310875</v>
+        <v>574464.0896310871</v>
       </c>
       <c r="D6" t="n">
-        <v>574464.0896310873</v>
+        <v>574464.0896310869</v>
       </c>
       <c r="E6" t="n">
-        <v>170505.2155332259</v>
+        <v>170817.8568621473</v>
       </c>
       <c r="F6" t="n">
-        <v>677990.657157772</v>
+        <v>678303.2984866933</v>
       </c>
       <c r="G6" t="n">
-        <v>677990.6571577719</v>
+        <v>678303.2984866935</v>
       </c>
       <c r="H6" t="n">
-        <v>677990.6571577721</v>
+        <v>678303.2984866931</v>
       </c>
       <c r="I6" t="n">
-        <v>677990.6571577721</v>
+        <v>678303.2984866931</v>
       </c>
       <c r="J6" t="n">
-        <v>510385.4793477897</v>
+        <v>510698.1206767109</v>
       </c>
       <c r="K6" t="n">
-        <v>677990.6571577718</v>
+        <v>678303.2984866935</v>
       </c>
       <c r="L6" t="n">
-        <v>677990.657157772</v>
+        <v>678303.2984866933</v>
       </c>
       <c r="M6" t="n">
-        <v>545383.3634288454</v>
+        <v>545696.0047577667</v>
       </c>
       <c r="N6" t="n">
-        <v>677990.657157772</v>
+        <v>678303.2984866934</v>
       </c>
       <c r="O6" t="n">
-        <v>677990.657157772</v>
+        <v>678303.2984866934</v>
       </c>
       <c r="P6" t="n">
-        <v>677990.6571577723</v>
+        <v>678303.2984866934</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.028161794974761e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.028161794974761e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>5.028161794974761e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.028161794974761e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.028161794974761e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.064892117539</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175388</v>
+        <v>934.064892117539</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,7 +26792,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000385</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.028161794974761e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26974,10 +26974,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.028161794974761e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>144.8145356984031</v>
+        <v>84.58795684460603</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -27438,10 +27438,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551289</v>
@@ -27593,10 +27593,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>126.1944229004732</v>
       </c>
       <c r="V4" t="n">
-        <v>197.5598649885403</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>140.3419152079425</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>121.4045343786568</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27833,7 +27833,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>201.1568951983997</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>238.3189209200576</v>
       </c>
       <c r="H8" t="n">
-        <v>86.81590547846554</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193765</v>
+        <v>115.3258519193762</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195737</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28104,10 +28104,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.028161794974761e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>5.028161794974761e-14</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>5.028161794974761e-14</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.028161794974761e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>5.028161794974761e-14</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.028161794974761e-14</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29751,7 +29751,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -31281,46 +31281,46 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31451,16 +31451,16 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181058</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336176</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491898</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767378</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730001</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342221</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166591</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190642</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147049</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
         <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745093</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T8" t="n">
         <v>16.43766458389759</v>
@@ -31600,28 +31600,28 @@
         <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
         <v>324.4289352178437</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177241</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040585</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762069</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405672</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378623</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q9" t="n">
         <v>256.462496416876</v>
@@ -31630,10 +31630,10 @@
         <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.318536019979</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675763</v>
@@ -31676,19 +31676,19 @@
         <v>1.684379313654578</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335768</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682318</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M10" t="n">
         <v>264.0341136849626</v>
@@ -31697,25 +31697,25 @@
         <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069558</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024981</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,25 +31840,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>338.1920576279227</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,22 +32077,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>699.0496615458095</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32101,13 +32101,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>235.5705495535876</v>
       </c>
       <c r="P18" t="n">
-        <v>390.1398273256871</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>400.5469039565762</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33262,7 +33262,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33666,7 +33666,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159425</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34368,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34783,7 +34783,7 @@
         <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>538.1269048795938</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820404</v>
@@ -34795,13 +34795,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>514.7099619750469</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313197</v>
+        <v>379.9148430313202</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225035</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407335</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457273</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376312</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949724</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637946</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939893</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091734</v>
+        <v>62.98022089091737</v>
       </c>
       <c r="K9" t="n">
         <v>451.0527332560633</v>
       </c>
       <c r="L9" t="n">
-        <v>562.7107934893654</v>
+        <v>562.7107934893648</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820402</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928737</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961228</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235321</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308545</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870588</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K10" t="n">
         <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831068</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468032</v>
@@ -35345,13 +35345,13 @@
         <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295068</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818071</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805397</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>196.0580237059044</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>556.4534171013651</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>92.97430510914316</v>
       </c>
       <c r="P18" t="n">
-        <v>256.1654199113569</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>257.9506595121318</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
